--- a/bga-metadatos.xlsx
+++ b/bga-metadatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilaandrea/Library/Mobile Documents/com~apple~CloudDocs/Universidad de los Andes/Maestría/2020-2/Diseño de Proyectos/bga-cat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189514FE-01E7-924D-830F-1D4DB336F8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121373E9-5972-5C4C-B288-2D15C1F9CEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13700" windowHeight="21000" xr2:uid="{19CFB6D5-673E-9E4A-94C4-DA42A88CE6D1}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t>Título</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Fecha</t>
   </si>
@@ -63,12 +60,6 @@
     <t>El Tiempo</t>
   </si>
   <si>
-    <t>Junio 29 1956</t>
-  </si>
-  <si>
-    <t>Mayo 24 1996</t>
-  </si>
-  <si>
     <t>Doble suicidio en "El Sisga"</t>
   </si>
   <si>
@@ -112,6 +103,21 @@
   </si>
   <si>
     <t>Referentes</t>
+  </si>
+  <si>
+    <t>6/29/65</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Beatriz González</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -155,9 +161,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,126 +485,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C659CF-422D-C842-8F35-6FB7EDEFFFC3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>1965</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>120</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1997</v>
+      </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1997</v>
-      </c>
-      <c r="D3">
-        <v>160</v>
-      </c>
-      <c r="E3">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>1983</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4">
         <v>4</v>
       </c>
     </row>
@@ -605,7 +631,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,19 +643,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,16 +663,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,16 +680,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35209</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,10 +697,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
